--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="9480" activeTab="3"/>
+    <workbookView windowHeight="17260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -157,11 +170,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -173,75 +186,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,17 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,21 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -302,8 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +258,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,65 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,8 +551,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,153 +610,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,52 +796,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1105,7 +1118,7 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="49.75" customWidth="1"/>
     <col min="4" max="4" width="44.75" customWidth="1"/>
@@ -1182,7 +1195,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="137.5" customWidth="1"/>
@@ -1203,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="17" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1287,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="60.125" customWidth="1"/>
     <col min="4" max="4" width="45.625" customWidth="1"/>
@@ -1294,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="17" spans="1:4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1351,8 +1364,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="17.7884615384615" customWidth="1"/>
     <col min="3" max="3" width="67.625" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
@@ -1371,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="17" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1431,4 +1432,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"username": "liwanlei","pwd": "liwanlei"}</t>
+    <t>{"username": "elemeqishou","pwd": "elemeqishou"}</t>
   </si>
   <si>
     <t>{"suc": "1","assert": "修改密码"}</t>
@@ -60,7 +60,7 @@
     <t>login2</t>
   </si>
   <si>
-    <t>{"username": "liwanlei","pwd":"liwanlei11"}</t>
+    <t>{"username": "elemeqishou","pwd":"elemeqishou11"}</t>
   </si>
   <si>
     <t>{"suc": "0","assert": "用户名或者密码错误"}</t>
@@ -69,7 +69,8 @@
     <t>login3</t>
   </si>
   <si>
-    <t>{"username": "liwan1789","pwd": "liwanlei"}</t>
+    <t>{"username": "elemeqisho+u789","pwd": "elemeqishou"}</t>
   </si>
   <si>
     <t>register1</t>
@@ -78,7 +79,7 @@
     <t>注册</t>
   </si>
   <si>
-    <t>{"username": "liwa","mima":"liwanlei","nima2":"liwanlei","shoujihao":"13964636199","youxiang":"952943386@qq.com"}</t>
+    <t>{"username": "shigeeleme","password":"elemeqishou","mima2":"elemeqishou","shoujihao":"13562588223","youxiang":"578446954@qq.com"}</t>
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"用户名应该是6-16组成"}</t>
@@ -87,7 +88,7 @@
     <t>register2</t>
   </si>
   <si>
-    <t>{"username": "liwanlei","mima": "liwanlei","nima2": "liwanlei","shoujihao": "13964636199","youxiang": "952943386@qq.com"}</t>
+    <t>{"username": "elemeqishou","password": "elemeqishou","mima2": "elemeqishou","shoujihao": "13562588223","youxiang": "578446954@qq.com"}</t>
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"用户名已经存在"}</t>
@@ -96,13 +97,13 @@
     <t>register3</t>
   </si>
   <si>
-    <t>{"username": "liwanlei989898987676989","mima": "liwanlei","nima2": "liwanlei","shoujihao": "13964636199","youxiang": "952943386@qq.com"}</t>
+    <t>{"username": "elemeqishou989898987676989","password": "elemeqishou","mima2": "elemeqishou","shoujihao": "13562588223","youxiang": "578446954@qq.com"}</t>
   </si>
   <si>
     <t>register4</t>
   </si>
   <si>
-    <t>{"username": "lileilei17","mima":"liwanlei","nima2":"liwanleiq","shoujihao": "13964636199","youxiang": "952943386@qq.com"}</t>
+    <t>{"username": "qishoushige","password":"elemeqishou","mima2":"elemeqishouq","shoujihao": "13562588223","youxiang": "578446954@qq.com"}</t>
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"请查看密码是否一致"}</t>
@@ -114,7 +115,7 @@
     <t>找回</t>
   </si>
   <si>
-    <t>{"username": "liwanlei","email":"952943386@qq.com"}</t>
+    <t>{"username": "elemeqishou","email":"578446954@qq.com"}</t>
   </si>
   <si>
     <t>{"suc":"1","assert_vale": "重置"}</t>
@@ -123,7 +124,7 @@
     <t>rabck2</t>
   </si>
   <si>
-    <t>{"username":"liwa","email": "952943386@qq.com"}</t>
+    <t>{"username":"qishoushige","email": "578446954@qq.com"}</t>
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"用户名不存在"}</t>
@@ -132,40 +133,40 @@
     <t>rabck3</t>
   </si>
   <si>
-    <t>{"username":"liwanlei","email":"952943386.com"}</t>
+    <t>{"username":"elemeqishou","email":"578446954.com"}</t>
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"邮箱不存在"}</t>
   </si>
   <si>
-    <t>regai1</t>
+    <t>xiugai1</t>
   </si>
   <si>
     <t>修改</t>
   </si>
   <si>
-    <t>{"yuanmi":"liwa","xiugaimi": "liwanlei","xiugaimi1": "liwanlei"}</t>
-  </si>
-  <si>
-    <t>{"suc": "0","assert_vale": "原密码输入有误"}</t>
-  </si>
-  <si>
-    <t>regai2</t>
-  </si>
-  <si>
-    <t>{"yuanmi":"liwanlei","xiugaimi":"liwanlei","xiugaimi1":"liwanlei1"}</t>
-  </si>
-  <si>
-    <t>{"suc":"0","assert_vale":"请确认修改密码"}</t>
-  </si>
-  <si>
-    <t>regai3</t>
-  </si>
-  <si>
-    <t>{"yuanmi":"liwanlei","xiugaimi":"liwanlei","xiugaimi1":"liwanlei"}</t>
-  </si>
-  <si>
-    <t>{"suc":"1","assert_vale":"登录"}</t>
+    <t>{"current_pwd":"qishoushige","new_pwd": "elemeqishou","confirm_pwd": "elemeqishou"}</t>
+  </si>
+  <si>
+    <t>{"suc": "0","assert_value": "原密码输入有误"}</t>
+  </si>
+  <si>
+    <t>xiugai2</t>
+  </si>
+  <si>
+    <t>{"current_pwd":"elemeqishou","new_pwd":"elemeqishou","confirm_pwd":"elemeqishou1"}</t>
+  </si>
+  <si>
+    <t>{"suc":"0","assert_value":"请确认修改密码"}</t>
+  </si>
+  <si>
+    <t>xiugai3</t>
+  </si>
+  <si>
+    <t>{"current_pwd":"elemeqishou","new_pwd":"elemeqishou","confirm_pwd":"elemeqishou"}</t>
+  </si>
+  <si>
+    <t>{"suc":"1","assert_value":"登录"}</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1192,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1284,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1361,8 +1362,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1386,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:4">
+    <row r="2" ht="34" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
